--- a/Dados/19_abr.xlsx
+++ b/Dados/19_abr.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -345,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C228"/>
+  <dimension ref="A1:C229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -354,92 +367,98 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>adamantina</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" t="inlineStr"/>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MUNICIPIO</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>CASOS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>OBITOS</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>aguas de lindoia</t>
+          <t>adamantina</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>aguas de sao pedro</t>
+          <t>aguas de lindoia</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>agudos</t>
+          <t>aguas de sao pedro</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>alambari</t>
+          <t>agudos</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>americana</t>
+          <t>alambari</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>americo brasiliense</t>
+          <t>americana</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>amparo</t>
+          <t>americo brasiliense</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -450,42 +469,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>andradina</t>
+          <t>amparo</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>angatuba</t>
+          <t>andradina</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>aparecida</t>
+          <t>angatuba</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>apiai</t>
+          <t>aparecida</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -496,7 +515,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>aracariguama</t>
+          <t>apiai</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -507,92 +526,90 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>aracatuba</t>
+          <t>aracariguama</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>aracoiaba da serra</t>
+          <t>aracatuba</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>arandu</t>
+          <t>aracoiaba da serra</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>araraquara</t>
+          <t>arandu</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>44</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>araras</t>
+          <t>araraquara</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
+        <v>44</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>artur nogueira</t>
+          <t>araras</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>aruja</t>
+          <t>artur nogueira</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>25</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>assis</t>
+          <t>aruja</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -601,11 +618,11 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>atibaia</t>
+          <t>assis</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -614,53 +631,55 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>avai</t>
+          <t>atibaia</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" t="inlineStr"/>
+        <v>22</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>avare</t>
+          <t>avai</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>bady bassitt</t>
+          <t>avare</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>bariri</t>
+          <t>bady bassitt</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>barra do turvo</t>
+          <t>bariri</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -671,88 +690,88 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>barretos</t>
+          <t>barra do turvo</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>barueri</t>
+          <t>barretos</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>120</v>
-      </c>
-      <c r="C29" t="n">
-        <v>5</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>batatais</t>
+          <t>barueri</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" t="inlineStr"/>
+        <v>120</v>
+      </c>
+      <c r="C30" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>bauru</t>
+          <t>batatais</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>56</v>
-      </c>
-      <c r="C31" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>bebedouro</t>
+          <t>bauru</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2</v>
-      </c>
-      <c r="C32" t="inlineStr"/>
+        <v>56</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>bilac</t>
+          <t>bebedouro</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>birigui</t>
+          <t>bilac</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>boituva</t>
+          <t>birigui</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -763,164 +782,164 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>botucatu</t>
+          <t>boituva</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>27</v>
-      </c>
-      <c r="C36" t="n">
-        <v>2</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>braganca paulista</t>
+          <t>botucatu</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C37" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>brodowski</t>
+          <t>braganca paulista</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4</v>
-      </c>
-      <c r="C38" t="inlineStr"/>
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>buritama</t>
+          <t>brodowski</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>cacapava</t>
+          <t>buritama</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>cachoeira paulista</t>
+          <t>cacapava</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>caiabu</t>
+          <t>cachoeira paulista</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>caieiras</t>
+          <t>caiabu</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>cajamar</t>
+          <t>caieiras</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>cajuru</t>
+          <t>cajamar</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2</v>
-      </c>
-      <c r="C45" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>campinas</t>
+          <t>cajuru</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>184</v>
-      </c>
-      <c r="C46" t="n">
-        <v>7</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>campo limpo paulista</t>
+          <t>campinas</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>5</v>
+        <v>184</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>campos do jordao</t>
+          <t>campo limpo paulista</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
-      </c>
-      <c r="C48" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>cananeia</t>
+          <t>campos do jordao</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -931,7 +950,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>capao bonito</t>
+          <t>cananeia</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -942,111 +961,109 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>caraguatatuba</t>
+          <t>capao bonito</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>13</v>
-      </c>
-      <c r="C51" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>carapicuiba</t>
+          <t>caraguatatuba</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>castilho</t>
+          <t>carapicuiba</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
-      </c>
-      <c r="C53" t="inlineStr"/>
+        <v>74</v>
+      </c>
+      <c r="C53" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>catanduva</t>
+          <t>castilho</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>9</v>
-      </c>
-      <c r="C54" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>cedral</t>
+          <t>catanduva</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
-      </c>
-      <c r="C55" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>conchas</t>
+          <t>cedral</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>1</v>
       </c>
-      <c r="C56" t="n">
-        <v>1</v>
-      </c>
+      <c r="C56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>cotia</t>
+          <t>conchas</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>cravinhos</t>
+          <t>cotia</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>cruzeiro</t>
+          <t>cravinhos</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C59" t="n">
         <v>1</v>
@@ -1055,103 +1072,105 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>cubatao</t>
+          <t>cruzeiro</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>22</v>
-      </c>
-      <c r="C60" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>diadema</t>
+          <t>cubatao</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>120</v>
-      </c>
-      <c r="C61" t="n">
-        <v>5</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>dracena</t>
+          <t>diadema</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>duartina</t>
+          <t>dracena</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
-      </c>
-      <c r="C63" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>eldorado</t>
+          <t>duartina</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>1</v>
       </c>
-      <c r="C64" t="n">
-        <v>1</v>
-      </c>
+      <c r="C64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>embu das artes</t>
+          <t>eldorado</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>embu guacu</t>
+          <t>embu das artes</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>5</v>
-      </c>
-      <c r="C66" t="inlineStr"/>
+        <v>56</v>
+      </c>
+      <c r="C66" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>estiva gerbi</t>
+          <t>embu guacu</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>fartura</t>
+          <t>estiva gerbi</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1162,195 +1181,195 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>fernandopolis</t>
+          <t>fartura</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ferraz de vasconcelos</t>
+          <t>fernandopolis</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>55</v>
-      </c>
-      <c r="C70" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>franca</t>
+          <t>ferraz de vasconcelos</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>6</v>
-      </c>
-      <c r="C71" t="inlineStr"/>
+        <v>55</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>francisco morato</t>
+          <t>franca</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>30</v>
-      </c>
-      <c r="C72" t="n">
-        <v>1</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>franco da rocha</t>
+          <t>francisco morato</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>garca</t>
+          <t>franco da rocha</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
-      </c>
-      <c r="C74" t="inlineStr"/>
+        <v>61</v>
+      </c>
+      <c r="C74" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>guararapes</t>
+          <t>garca</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>guararema</t>
+          <t>guararapes</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>guaratingueta</t>
+          <t>guararema</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>guaruja</t>
+          <t>guaratingueta</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>61</v>
-      </c>
-      <c r="C78" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>guarulhos</t>
+          <t>guaruja</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>308</v>
+        <v>61</v>
       </c>
       <c r="C79" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>hortolandia</t>
+          <t>guarulhos</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>9</v>
-      </c>
-      <c r="C80" t="inlineStr"/>
+        <v>308</v>
+      </c>
+      <c r="C80" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ibira</t>
+          <t>hortolandia</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ibiuna</t>
+          <t>ibira</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>iepe</t>
+          <t>ibiuna</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
-      </c>
-      <c r="C83" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>igarapava</t>
+          <t>iepe</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>1</v>
       </c>
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>igarata</t>
+          <t>igarapava</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1361,101 +1380,99 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>iguape</t>
+          <t>igarata</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ilha comprida</t>
+          <t>iguape</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ilha solteira</t>
+          <t>ilha comprida</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ilhabela</t>
+          <t>ilha solteira</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>indaiatuba</t>
+          <t>ilhabela</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>iracemapolis</t>
+          <t>indaiatuba</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>itanhaem</t>
+          <t>iracemapolis</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>itapecerica da serra</t>
+          <t>itanhaem</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>48</v>
-      </c>
-      <c r="C93" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>itapetininga</t>
+          <t>itapecerica da serra</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C94" t="n">
         <v>1</v>
@@ -1464,158 +1481,160 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>itapeva</t>
+          <t>itapetininga</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
-      </c>
-      <c r="C95" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>itapevi</t>
+          <t>itapeva</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>39</v>
-      </c>
-      <c r="C96" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>itapira</t>
+          <t>itapevi</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>itaquaquecetuba</t>
+          <t>itapira</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>49</v>
-      </c>
-      <c r="C98" t="inlineStr"/>
+        <v>14</v>
+      </c>
+      <c r="C98" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>itarare</t>
+          <t>itaquaquecetuba</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="C99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>itatiba</t>
+          <t>itarare</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2</v>
-      </c>
-      <c r="C100" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>itatinga</t>
+          <t>itatiba</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
-      </c>
-      <c r="C101" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>itu</t>
+          <t>itatinga</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>itupeva</t>
+          <t>itu</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>jaboticabal</t>
+          <t>itupeva</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>9</v>
-      </c>
-      <c r="C104" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>jacarei</t>
+          <t>jaboticabal</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>19</v>
-      </c>
-      <c r="C105" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>jaci</t>
+          <t>jacarei</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>jaguariuna</t>
+          <t>jaci</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>jales</t>
+          <t>jaguariuna</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1626,118 +1645,116 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>jandira</t>
+          <t>jales</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>13</v>
-      </c>
-      <c r="C109" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>jardinopolis</t>
+          <t>jandira</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>3</v>
-      </c>
-      <c r="C110" t="inlineStr"/>
+        <v>13</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>jau</t>
+          <t>jardinopolis</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>joanopolis</t>
+          <t>jau</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>jose bonifacio</t>
+          <t>joanopolis</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>jundiai</t>
+          <t>jose bonifacio</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>46</v>
-      </c>
-      <c r="C114" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>junqueiropolis</t>
+          <t>jundiai</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
-      </c>
-      <c r="C115" t="inlineStr"/>
+        <v>46</v>
+      </c>
+      <c r="C115" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>juquitiba</t>
+          <t>junqueiropolis</t>
         </is>
       </c>
       <c r="B116" t="n">
         <v>1</v>
       </c>
-      <c r="C116" t="n">
-        <v>1</v>
-      </c>
+      <c r="C116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>laranjal paulista</t>
+          <t>juquitiba</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>leme</t>
+          <t>laranjal paulista</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C118" t="n">
         <v>2</v>
@@ -1746,55 +1763,57 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>lencois paulista</t>
+          <t>leme</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>3</v>
-      </c>
-      <c r="C119" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>limeira</t>
+          <t>lencois paulista</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>9</v>
-      </c>
-      <c r="C120" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>lins</t>
+          <t>limeira</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>lorena</t>
+          <t>lins</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
-      </c>
-      <c r="C122" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>louveira</t>
+          <t>lorena</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -1805,7 +1824,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>macatuba</t>
+          <t>louveira</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -1816,7 +1835,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>mairinque</t>
+          <t>macatuba</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -1827,148 +1846,146 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>mairipora</t>
+          <t>mairinque</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>10</v>
-      </c>
-      <c r="C126" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>marilia</t>
+          <t>mairipora</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>matao</t>
+          <t>marilia</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>3</v>
-      </c>
-      <c r="C128" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>maua</t>
+          <t>matao</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>87</v>
-      </c>
-      <c r="C129" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>mineiros do tiete</t>
+          <t>maua</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>mirassol</t>
+          <t>mineiros do tiete</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>6</v>
-      </c>
-      <c r="C131" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>mococa</t>
+          <t>mirassol</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>2</v>
-      </c>
-      <c r="C132" t="n">
-        <v>1</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>mogi das cruzes</t>
+          <t>mococa</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="C133" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>mogi guacu</t>
+          <t>mogi das cruzes</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C134" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>mogi mirim</t>
+          <t>mogi guacu</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1</v>
-      </c>
-      <c r="C135" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>mongagua</t>
+          <t>moji mirim</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>3</v>
-      </c>
-      <c r="C136" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>monte alto</t>
+          <t>mongagua</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C137" t="n">
         <v>1</v>
@@ -1977,75 +1994,77 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>monte mor</t>
+          <t>monte alto</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
-      </c>
-      <c r="C138" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>morro agudo</t>
+          <t>monte mor</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>morungaba</t>
+          <t>morro agudo</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>nhandeara</t>
+          <t>morungaba</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>nova odessa</t>
+          <t>nhandeara</t>
         </is>
       </c>
       <c r="B142" t="n">
         <v>1</v>
       </c>
-      <c r="C142" t="n">
-        <v>1</v>
-      </c>
+      <c r="C142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>olimpia</t>
+          <t>nova odessa</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>4</v>
-      </c>
-      <c r="C143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>orlandia</t>
+          <t>olimpia</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -2056,64 +2075,64 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>osasco</t>
+          <t>orlandia</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>269</v>
-      </c>
-      <c r="C145" t="n">
-        <v>27</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>ourinhos</t>
+          <t>osasco</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>7</v>
-      </c>
-      <c r="C146" t="inlineStr"/>
+        <v>269</v>
+      </c>
+      <c r="C146" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>pariquera acu</t>
+          <t>ourinhos</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>paulinia</t>
+          <t>pariquera acu</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>paulistania</t>
+          <t>paulinia</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>pederneiras</t>
+          <t>paulistania</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -2124,7 +2143,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>pedra bela</t>
+          <t>pederneiras</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -2135,282 +2154,280 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>penapolis</t>
+          <t>pedra bela</t>
         </is>
       </c>
       <c r="B152" t="n">
         <v>1</v>
       </c>
-      <c r="C152" t="n">
-        <v>1</v>
-      </c>
+      <c r="C152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>peruibe</t>
+          <t>penapolis</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>6</v>
-      </c>
-      <c r="C153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>piedade</t>
+          <t>peruibe</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>pilar do sul</t>
+          <t>piedade</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>pindamonhangaba</t>
+          <t>pilar do sul</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>2</v>
-      </c>
-      <c r="C156" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>pindorama</t>
+          <t>pindamonhangaba</t>
         </is>
       </c>
       <c r="B157" t="n">
         <v>2</v>
       </c>
-      <c r="C157" t="inlineStr"/>
+      <c r="C157" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>piracaia</t>
+          <t>pindorama</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>piracicaba</t>
+          <t>piracaia</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>19</v>
-      </c>
-      <c r="C159" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>piraju</t>
+          <t>piracicaba</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>3</v>
-      </c>
-      <c r="C160" t="inlineStr"/>
+        <v>19</v>
+      </c>
+      <c r="C160" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>pirajui</t>
+          <t>piraju</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>piratininga</t>
+          <t>pirajui</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>poa</t>
+          <t>piratininga</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>25</v>
-      </c>
-      <c r="C163" t="n">
         <v>3</v>
       </c>
+      <c r="C163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>pontal</t>
+          <t>poa</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>4</v>
-      </c>
-      <c r="C164" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="C164" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>populina</t>
+          <t>pontal</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>porto feliz</t>
+          <t>populina</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>porto ferreira</t>
+          <t>porto feliz</t>
         </is>
       </c>
       <c r="B167" t="n">
         <v>2</v>
       </c>
-      <c r="C167" t="n">
-        <v>1</v>
-      </c>
+      <c r="C167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>praia grande</t>
+          <t>porto ferreira</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="C168" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>pratania</t>
+          <t>praia grande</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>2</v>
-      </c>
-      <c r="C169" t="inlineStr"/>
+        <v>54</v>
+      </c>
+      <c r="C169" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>presidente prudente</t>
+          <t>pratania</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>6</v>
-      </c>
-      <c r="C170" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>presidente venceslau</t>
+          <t>presidente prudente</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>promissao</t>
+          <t>presidente venceslau</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>2</v>
-      </c>
-      <c r="C172" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="C172" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>rancharia</t>
+          <t>promissao</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>registro</t>
+          <t>rancharia</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>4</v>
-      </c>
-      <c r="C174" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ribeirao pires</t>
+          <t>registro</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C175" t="n">
         <v>1</v>
@@ -2419,31 +2436,33 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>ribeirao preto</t>
+          <t>ribeirao pires</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="C176" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>rincao</t>
+          <t>ribeirao preto</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>1</v>
-      </c>
-      <c r="C177" t="inlineStr"/>
+        <v>80</v>
+      </c>
+      <c r="C177" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>rinopolis</t>
+          <t>rincao</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -2454,66 +2473,64 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>rio claro</t>
+          <t>rinopolis</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>14</v>
-      </c>
-      <c r="C179" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>rio grande da serra</t>
+          <t>rio claro</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>9</v>
-      </c>
-      <c r="C180" t="inlineStr"/>
+        <v>14</v>
+      </c>
+      <c r="C180" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>salto</t>
+          <t>rio grande da serra</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>salto de pirapora</t>
+          <t>salto</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>santa barbara d'oeste</t>
+          <t>salto de pirapora</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>2</v>
-      </c>
-      <c r="C183" t="n">
-        <v>1</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>santa branca</t>
+          <t>santa barbara d'oeste</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2526,382 +2543,384 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>santa cruz do rio pardo</t>
+          <t>santa branca</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>5</v>
-      </c>
-      <c r="C185" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>santa gertrudes</t>
+          <t>santa cruz do rio pardo</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>santa isabel</t>
+          <t>santa gertrudes</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>3</v>
-      </c>
-      <c r="C187" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>santa lucia</t>
+          <t>santa isabel</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>2</v>
-      </c>
-      <c r="C188" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>santana de parnaiba</t>
+          <t>santa lucia</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="C189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>santo andre</t>
+          <t>santana de parnaiba</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>247</v>
-      </c>
-      <c r="C190" t="n">
-        <v>12</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>santo antonio da alegria</t>
+          <t>santo andre</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>1</v>
+        <v>247</v>
       </c>
       <c r="C191" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>santos</t>
+          <t>santo antonio da alegria</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>293</v>
+        <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>sao bernardo do campo</t>
+          <t>santos</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C193" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>sao caetano do sul</t>
+          <t>sao bernardo do campo</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>98</v>
+        <v>297</v>
       </c>
       <c r="C194" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>sao carlos</t>
+          <t>sao caetano do sul</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="C195" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>sao joao da boa vista</t>
+          <t>sao carlos</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>5</v>
-      </c>
-      <c r="C196" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="C196" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>sao joaquim da barra</t>
+          <t>sao joao da boa vista</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>sao jose do rio pardo</t>
+          <t>sao joaquim da barra</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>sao jose do rio preto</t>
+          <t>sao jose do rio pardo</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>71</v>
-      </c>
-      <c r="C199" t="n">
-        <v>6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>sao jose dos campos</t>
+          <t>sao jose do rio preto</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>136</v>
+        <v>71</v>
       </c>
       <c r="C200" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>sao manuel</t>
+          <t>sao jose dos campos</t>
         </is>
       </c>
       <c r="B201" t="n">
+        <v>136</v>
+      </c>
+      <c r="C201" t="n">
         <v>3</v>
-      </c>
-      <c r="C201" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>sao miguel arcanjo</t>
+          <t>sao manuel</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>2</v>
-      </c>
-      <c r="C202" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="C202" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>sao paulo</t>
+          <t>sao miguel arcanjo</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>9668</v>
-      </c>
-      <c r="C203" t="n">
-        <v>700</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>sao pedro</t>
+          <t>sao paulo</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>1</v>
-      </c>
-      <c r="C204" t="inlineStr"/>
+        <v>9668</v>
+      </c>
+      <c r="C204" t="n">
+        <v>700</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>sao roque</t>
+          <t>sao pedro</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>sao sebastiao</t>
+          <t>sao roque</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>6</v>
-      </c>
-      <c r="C206" t="n">
-        <v>2</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>sao vicente</t>
+          <t>sao sebastiao</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="C207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>serrana</t>
+          <t>sao vicente</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>1</v>
-      </c>
-      <c r="C208" t="inlineStr"/>
+        <v>48</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>sertaozinho</t>
+          <t>serrana</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>9</v>
-      </c>
-      <c r="C209" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>sorocaba</t>
+          <t>sertaozinho</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="C210" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>sumare</t>
+          <t>sorocaba</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>5</v>
-      </c>
-      <c r="C211" t="inlineStr"/>
+        <v>47</v>
+      </c>
+      <c r="C211" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>suzano</t>
+          <t>sumare</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>80</v>
-      </c>
-      <c r="C212" t="n">
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>taboao da serra</t>
+          <t>suzano</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="C213" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>tanabi</t>
+          <t>taboao da serra</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>3</v>
-      </c>
-      <c r="C214" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="C214" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>taquaritinga</t>
+          <t>tanabi</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>taquarituba</t>
+          <t>taquaritinga</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -2912,29 +2931,29 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>tarabai</t>
+          <t>taquarituba</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>tatui</t>
+          <t>tarabai</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>taubate</t>
+          <t>tatui</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -2945,29 +2964,29 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>terra roxa</t>
+          <t>taubate</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>tupa</t>
+          <t>terra roxa</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>ubatuba</t>
+          <t>tupa</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -2978,24 +2997,22 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>valinhos</t>
+          <t>ubatuba</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>11</v>
-      </c>
-      <c r="C223" t="n">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>vargem grande paulista</t>
+          <t>valinhos</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C224" t="n">
         <v>3</v>
@@ -3004,48 +3021,61 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>varzea paulista</t>
+          <t>vargem grande paulista</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>4</v>
-      </c>
-      <c r="C225" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="C225" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>vinhedo</t>
+          <t>varzea paulista</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>votorantim</t>
+          <t>vinhedo</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>6</v>
-      </c>
-      <c r="C227" t="n">
-        <v>1</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
+          <t>votorantim</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>6</v>
+      </c>
+      <c r="C228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
           <t>votuporanga</t>
         </is>
       </c>
-      <c r="B228" t="n">
+      <c r="B229" t="n">
         <v>8</v>
       </c>
-      <c r="C228" t="inlineStr"/>
+      <c r="C229" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/Dados/19_abr.xlsx
+++ b/Dados/19_abr.xlsx
@@ -1970,7 +1970,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>moji mirim</t>
+          <t>mogi mirim</t>
         </is>
       </c>
       <c r="B136" t="n">
